--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D70373-88EA-4DAF-B01F-7D1EFFBD7B30}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82172B22-0A4C-43BC-83F7-119821E91065}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>Door</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -191,14 +199,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,6 +233,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D4CC9-A16C-4DF1-BB55-82462CC4B05C}">
-  <dimension ref="B1:L13"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="137" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,276 +575,352 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="10">
+      <c r="B3" s="11"/>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="11">
-        <f>C3+1</f>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="10">
-        <f t="shared" ref="C5:C11" si="0">C4+1</f>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10">
+        <f>C5+1</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="9">
+        <f t="shared" ref="C7:C16" si="0">C6+1</f>
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="11">
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10">
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B2:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82172B22-0A4C-43BC-83F7-119821E91065}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FEF4AC-AB47-4FAF-8CC3-4AD5DA2F93BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="137" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FEF4AC-AB47-4FAF-8CC3-4AD5DA2F93BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F7985-7D37-4E62-B9B8-EF9BEA001766}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
+    <workbookView xWindow="19090" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
   <si>
     <t>Door</t>
   </si>
@@ -231,14 +231,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,20 +562,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D4CC9-A16C-4DF1-BB55-82462CC4B05C}">
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="12" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -610,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="9">
         <v>1</v>
       </c>
@@ -627,7 +628,7 @@
       <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5"/>
@@ -635,7 +636,7 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="10">
         <v>2</v>
       </c>
@@ -652,7 +653,7 @@
       <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="7"/>
@@ -660,7 +661,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
@@ -668,7 +669,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -679,7 +680,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="10">
         <f>C5+1</f>
         <v>4</v>
@@ -698,16 +699,16 @@
       <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="9">
-        <f t="shared" ref="C7:C16" si="0">C6+1</f>
+        <f t="shared" ref="C7:C15" si="0">C6+1</f>
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -724,14 +725,14 @@
       <c r="I7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -745,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="7" t="s">
@@ -755,14 +756,18 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -775,7 +780,7 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -801,13 +806,13 @@
       <c r="J10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -827,7 +832,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -859,7 +864,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -879,7 +884,7 @@
       <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -899,7 +904,7 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
         <v>13</v>

--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F7985-7D37-4E62-B9B8-EF9BEA001766}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CD7F0-484D-4DD9-8208-9AF3AFEF5402}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="350" windowWidth="19420" windowHeight="10560" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
   <si>
     <t>Door</t>
   </si>
@@ -563,7 +563,7 @@
   <dimension ref="B1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +761,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>

--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33CD7F0-484D-4DD9-8208-9AF3AFEF5402}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06600802-51B8-41D0-8455-81189720CB65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
   <si>
     <t>Door</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +113,6 @@
     <font>
       <sz val="16"/>
       <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,28 +208,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
@@ -560,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D4CC9-A16C-4DF1-BB55-82462CC4B05C}">
-  <dimension ref="B1:L15"/>
+  <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +562,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -611,8 +597,8 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="9">
+      <c r="B3" s="11"/>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -628,7 +614,7 @@
       <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="5"/>
@@ -636,40 +622,40 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="10">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="9">
+      <c r="B5" s="11"/>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -680,35 +666,35 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="10">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8">
         <f>C5+1</f>
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="9">
-        <f t="shared" ref="C7:C15" si="0">C6+1</f>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7:C13" si="0">C6+1</f>
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -725,203 +711,167 @@
       <c r="I7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="10">
+      <c r="B8" s="11"/>
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="9">
+      <c r="B9" s="11"/>
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
-        <v>7</v>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="10">
+      <c r="B10" s="11"/>
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="9">
+      <c r="B11" s="11"/>
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="J11" s="9"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="10">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="9">
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="9">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="B2:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06600802-51B8-41D0-8455-81189720CB65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A1D97-A3E0-4101-A320-99842DBE8697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>Door</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -191,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +233,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819D4CC9-A16C-4DF1-BB55-82462CC4B05C}">
   <dimension ref="B1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +665,16 @@
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
@@ -682,9 +702,7 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="10" t="s">
         <v>7</v>
       </c>
@@ -697,16 +715,12 @@
         <f t="shared" ref="C7:C13" si="0">C6+1</f>
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>8</v>
@@ -714,7 +728,9 @@
       <c r="J7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,16 +742,18 @@
       <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="6" t="s">
@@ -767,15 +785,13 @@
       <c r="I9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
@@ -801,11 +817,11 @@
       <c r="I10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -820,7 +836,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="5"/>
@@ -839,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="6"/>
@@ -858,7 +874,7 @@
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5"/>

--- a/IntegrationStrategy.xlsx
+++ b/IntegrationStrategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\4. Sem\SWT\SWT_Assignment3_GR16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9A1D97-A3E0-4101-A320-99842DBE8697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE2DF5A-EAAD-4B99-890F-C0A31CCF88E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{9CBD800E-6A27-47EA-B1F7-BFA7CE6A41AB}"/>
   </bookViews>
@@ -231,14 +231,14 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,7 +563,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -611,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7">
         <v>3</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8">
         <f>C5+1</f>
         <v>4</v>
@@ -710,7 +710,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="7">
         <f t="shared" ref="C7:C13" si="0">C6+1</f>
         <v>5</v>
@@ -734,7 +734,7 @@
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="6" t="s">
@@ -762,7 +762,7 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -788,13 +788,15 @@
       <c r="J9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="5"/>
+      <c r="K9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -803,30 +805,28 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="12" t="s">
+      <c r="K10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="5"/>
@@ -846,7 +846,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="6"/>
@@ -866,7 +866,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -874,7 +874,7 @@
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5"/>
